--- a/fruits and vegetables.xlsx
+++ b/fruits and vegetables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Fruits and Vegi" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -213,6 +213,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -231,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -246,11 +251,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF0B8043"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -455,6 +471,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF0000FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -2375,16 +2392,61 @@
       <c r="B45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" ref="C45:D45" si="1">SUM(C2:C43)</f>
+      <c r="C45" s="6">
+        <f t="shared" ref="C45:N45" si="1">SUM(C2:C43)</f>
         <v>156.75</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
+      <c r="E45" s="6">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>162.5</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="1"/>
+        <v>192.5</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="1"/>
+        <v>174.25</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="1"/>
+        <v>195.25</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="1"/>
+        <v>207.25</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="1"/>
+        <v>211.5</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SORT(B2:B43)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/fruits and vegetables.xlsx
+++ b/fruits and vegetables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -2446,6 +2446,126 @@
         <v>257</v>
       </c>
     </row>
+    <row r="47">
+      <c r="B47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A2:B43,A2:A43=""V"")"),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lettuce")</f>
+        <v>lettuce</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"beans")</f>
+        <v>beans</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cumcumbers")</f>
+        <v>Cumcumbers</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Onions")</f>
+        <v>Onions</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Corn")</f>
+        <v>Corn</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tomatoes")</f>
+        <v>Tomatoes</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carrots")</f>
+        <v>Carrots</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plantains bannan")</f>
+        <v>plantains bannan</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pumpkin")</f>
+        <v>Pumpkin</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Garlic")</f>
+        <v>Garlic</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Potatoes")</f>
+        <v>Potatoes</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"V")</f>
+        <v>V</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Peppers")</f>
+        <v>Peppers</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B43">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2471,219 +2591,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A43">
